--- a/biology/Botanique/Salsola/Salsola.xlsx
+++ b/biology/Botanique/Salsola/Salsola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Salsola regroupe des espèces de plantes de la famille des Amaranthacées ou des Chénopodiacées selon la classification classique de Cronquist (1981)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Salsola regroupe des espèces de plantes de la famille des Amaranthacées ou des Chénopodiacées selon la classification classique de Cronquist (1981).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Répartition et milieu de vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes halophytes, présentes dans les prés salés, sur le littoral sablonneux.
 </t>
@@ -542,7 +556,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Jusqu'au XIXe siècle, ces plantes halophytes étaient utilisées pour fabriquer de la soude, utile pour faire du savon ou pour la fabrication du verre. On l'obtient après combustion de la plante. Les cendres contiennent alors 30 % de carbonate de sodium (Na2CO3) ou « soude naturelle ». Après caustication de la cendre (ajout de chaux), on obtient la soude caustique :
         (
@@ -617,9 +633,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le genre Salsola  comprend 130 espèces natives essentiellement de l'ancien monde[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le genre Salsola  comprend 130 espèces natives essentiellement de l'ancien monde :
 D'après l'ITIS :
 Salsola arbuscula
 Salsola aphylla L. f., lye bush, Namibie, Afrique du Sud,
@@ -629,7 +647,7 @@
 Salsola paulsenii Litv., chardon barbelérusse,
 Salsola ryanii Hrusa &amp; Gaskin, chardon épineux russe,
 Salsola soda L., * Salsola tragus L., chardon russe à feuilles opposées,
-Salsola tragus L., Soude roulante[4], chardon épineux russe,
+Salsola tragus L., Soude roulante, chardon épineux russe,
 Salsola vermiculata L., salsola aux feuilles vermiforme, chardon russe arbustif.
 Autre espèce : 	 
 Salsola melitensis, soude endémique de l'archipel maltais.
